--- a/data-raw/queries.xlsx
+++ b/data-raw/queries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA88D2BC-49CC-A04E-9AD0-5D98F0E6B9E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78F8728-21CD-A247-B40F-C0A93FC512F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27640" yWindow="4060" windowWidth="27640" windowHeight="16940" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="3920" yWindow="1400" windowWidth="27640" windowHeight="16940" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
   <si>
     <t>food</t>
   </si>
@@ -67,9 +67,6 @@
     <t>FACEozone</t>
   </si>
   <si>
-    <t>IIASAPIKetcPubs</t>
-  </si>
-  <si>
     <t>priceVar</t>
   </si>
   <si>
@@ -665,12 +662,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">(AUTHLASTNAME( Valin  or Havlik  or Pope  or van Meijl  or Sands )  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">land AND ocean AND (conflict OR adaptation OR use OR mitigation) </t>
-  </si>
-  <si>
     <t>livestock*</t>
   </si>
   <si>
@@ -710,9 +701,6 @@
     <t>"free air carbon dioxide" experiment*</t>
   </si>
   <si>
-    <t>agriculture AND ( SSP OR "shared socioeconomic profile*" OR RCP OR "representative concentration pathway*")</t>
-  </si>
-  <si>
     <t>"storage loss" AND (crop OR livestock or fish)</t>
   </si>
   <si>
@@ -738,13 +726,106 @@
   </si>
   <si>
     <t>nutrition* OR nutrition* status OR nutrition* outcome* OR nutrition* health OR anthropometry OR diet</t>
+  </si>
+  <si>
+    <t>medicinalPlants</t>
+  </si>
+  <si>
+    <t>fibre</t>
+  </si>
+  <si>
+    <t>biofuels</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>Fisheries OR fishing OR fish resource OR fish products OR Aquaculture OR Aquacultural</t>
+  </si>
+  <si>
+    <t>croppingSystem</t>
+  </si>
+  <si>
+    <t>cropping  AND system  OR  crops </t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>sugarcane</t>
+  </si>
+  <si>
+    <t>sugarc*</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>soybean</t>
+  </si>
+  <si>
+    <t>ozonecrop</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>QueryID</t>
+  </si>
+  <si>
+    <t>fertsustain</t>
+  </si>
+  <si>
+    <t>fertilizer AND (crop OR agriculture) AND sustainability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">land AND ocean AND (conflict OR adaptation OR use ) </t>
+  </si>
+  <si>
+    <t>disaster OR flood OR drought OR hurricane OR storm OR cyclone OR "sea level rise" OR "irregular rainfall" OR "intense rainfall"</t>
+  </si>
+  <si>
+    <t>adaptation OR maladaptation OR adaptive OR "adaptive capacity" OR "disaster risk management" OR "risk sharing" OR "risk spreading"</t>
+  </si>
+  <si>
+    <t>consumption OR consum* OR "dietary choice" OR "diet" OR "food choice" OR "food utilisation" OR "food utilization"</t>
+  </si>
+  <si>
+    <t>vulnerability</t>
+  </si>
+  <si>
+    <t>adaptation</t>
+  </si>
+  <si>
+    <t>adaptation2</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>food or fiber</t>
+  </si>
+  <si>
+    <t>agriculture AND ( SSP OR "shared socioeconomic profile*" OR RCP OR "representative concentration pathway")</t>
+  </si>
+  <si>
+    <t>crop AND (ozone or "air quality")</t>
+  </si>
+  <si>
+    <t>"medicinal plants"</t>
+  </si>
+  <si>
+    <t>(insurance OR "social protection" OR education OR learning OR cooperation OR collaboration OR migration OR displacement OR "climate services" OR "climate information") OR ("food system" AND (sustain* OR transition* OR transform*))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -794,6 +875,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -816,14 +904,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1139,181 +1229,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="C34" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1329,338 +1675,338 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+    <row r="115" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/queries.xlsx
+++ b/data-raw/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78F8728-21CD-A247-B40F-C0A93FC512F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E83D84-BCB1-FB40-B149-1D3319521185}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="1400" windowWidth="27640" windowHeight="16940" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
@@ -773,9 +773,6 @@
     <t>rice</t>
   </si>
   <si>
-    <t>QueryID</t>
-  </si>
-  <si>
     <t>fertsustain</t>
   </si>
   <si>
@@ -819,6 +816,9 @@
   </si>
   <si>
     <t>(insurance OR "social protection" OR education OR learning OR cooperation OR collaboration OR migration OR displacement OR "climate services" OR "climate information") OR ("food system" AND (sustain* OR transition* OR transform*))</t>
+  </si>
+  <si>
+    <t>queryNumber</t>
   </si>
 </sst>
 </file>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1242,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1424,7 +1424,7 @@
         <v>86</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
         <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1479,7 +1479,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1589,7 +1589,7 @@
         <v>110</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1597,10 +1597,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1619,10 +1619,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1630,10 +1630,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1641,10 +1641,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,10 +1652,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">

--- a/data-raw/queries.xlsx
+++ b/data-raw/queries.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E83D84-BCB1-FB40-B149-1D3319521185}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEBAEA8-D257-4D4D-BF0F-4D742EEE91A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="1400" windowWidth="27640" windowHeight="16940" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="79960" yWindow="11260" windowWidth="27640" windowHeight="19500" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="WOS Search Operators_x000a__x000a_Sear" sheetId="2" r:id="rId2"/>
+    <sheet name="Queries" sheetId="1" r:id="rId1"/>
+    <sheet name="searchTerms" sheetId="3" r:id="rId2"/>
+    <sheet name="WOSSearchOperators" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Queries!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>livestock</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="192">
   <si>
     <t>valueChain</t>
   </si>
@@ -52,12 +50,6 @@
     <t>storageLoss</t>
   </si>
   <si>
-    <t>geneticEng</t>
-  </si>
-  <si>
-    <t>impacts</t>
-  </si>
-  <si>
     <t>fruitImpact</t>
   </si>
   <si>
@@ -662,21 +654,12 @@
     </r>
   </si>
   <si>
-    <t>livestock*</t>
-  </si>
-  <si>
     <t>"food value chain"</t>
   </si>
   <si>
     <t xml:space="preserve"> financialization AND agriculture</t>
   </si>
   <si>
-    <t xml:space="preserve">genet* AND (crop OR livestock OR fish)  </t>
-  </si>
-  <si>
-    <t>impact* AND (crop OR livestock OR fish)</t>
-  </si>
-  <si>
     <t>impact* AND (frui* OR tomato* OR strawberr* OR blueberr* OR raspberr* OR grap*)</t>
   </si>
   <si>
@@ -716,18 +699,9 @@
     <t>foodSecurity</t>
   </si>
   <si>
-    <t>food AND (suppl* OR *securit* OR access* OR afford* OR insecur* OR *sufficien* OR desert* OR choice* OR availab* OR intake OR utiliz* OR stabil* OR quality OR poverty)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "international trade" AND (agriculture OR food)</t>
-  </si>
-  <si>
     <t>nutrition</t>
   </si>
   <si>
-    <t>nutrition* OR nutrition* status OR nutrition* outcome* OR nutrition* health OR anthropometry OR diet</t>
-  </si>
-  <si>
     <t>medicinalPlants</t>
   </si>
   <si>
@@ -740,15 +714,9 @@
     <t>fish</t>
   </si>
   <si>
-    <t>Fisheries OR fishing OR fish resource OR fish products OR Aquaculture OR Aquacultural</t>
-  </si>
-  <si>
     <t>croppingSystem</t>
   </si>
   <si>
-    <t>cropping  AND system  OR  crops </t>
-  </si>
-  <si>
     <t>wheat</t>
   </si>
   <si>
@@ -773,24 +741,6 @@
     <t>rice</t>
   </si>
   <si>
-    <t>fertsustain</t>
-  </si>
-  <si>
-    <t>fertilizer AND (crop OR agriculture) AND sustainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">land AND ocean AND (conflict OR adaptation OR use ) </t>
-  </si>
-  <si>
-    <t>disaster OR flood OR drought OR hurricane OR storm OR cyclone OR "sea level rise" OR "irregular rainfall" OR "intense rainfall"</t>
-  </si>
-  <si>
-    <t>adaptation OR maladaptation OR adaptive OR "adaptive capacity" OR "disaster risk management" OR "risk sharing" OR "risk spreading"</t>
-  </si>
-  <si>
-    <t>consumption OR consum* OR "dietary choice" OR "diet" OR "food choice" OR "food utilisation" OR "food utilization"</t>
-  </si>
-  <si>
     <t>vulnerability</t>
   </si>
   <si>
@@ -803,29 +753,275 @@
     <t>consumption</t>
   </si>
   <si>
-    <t>food or fiber</t>
-  </si>
-  <si>
     <t>agriculture AND ( SSP OR "shared socioeconomic profile*" OR RCP OR "representative concentration pathway")</t>
   </si>
   <si>
     <t>crop AND (ozone or "air quality")</t>
   </si>
   <si>
-    <t>"medicinal plants"</t>
-  </si>
-  <si>
-    <t>(insurance OR "social protection" OR education OR learning OR cooperation OR collaboration OR migration OR displacement OR "climate services" OR "climate information") OR ("food system" AND (sustain* OR transition* OR transform*))</t>
-  </si>
-  <si>
     <t>queryNumber</t>
+  </si>
+  <si>
+    <t>aquaculture</t>
+  </si>
+  <si>
+    <t>Aquaculture OR Aquacultural</t>
+  </si>
+  <si>
+    <t>"medicinal plant*" OR "wild edible*" OR "aquatic algae" or "aromatic plant*" OR seaweed*</t>
+  </si>
+  <si>
+    <t>sectionName</t>
+  </si>
+  <si>
+    <t>sectionDescription</t>
+  </si>
+  <si>
+    <t>5.3.2 Aquatic systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.3 Aquaculture systems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.1 Terrestrial Systems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5 Climate Change and the Food System Value Chain: from Postharvest to Food </t>
+  </si>
+  <si>
+    <t>geneticEngCrop</t>
+  </si>
+  <si>
+    <t>('genet* AND crop*)</t>
+  </si>
+  <si>
+    <t>geneticEngFish</t>
+  </si>
+  <si>
+    <t>geneticEngLivestock</t>
+  </si>
+  <si>
+    <t>('genet* AND livestoc*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.1 Methodologies for assessing impacts and risks </t>
+  </si>
+  <si>
+    <t>biofuel* OR bioenergy OR agrofuel* OR BECCS OR "bioenergy with carbon capture and storage"</t>
+  </si>
+  <si>
+    <t>"international trade" AND (agriculture OR food)</t>
+  </si>
+  <si>
+    <t>food AND (nutrition* OR nutrition* status OR nutrition* outcome* OR nutrition* health OR anthropometry OR diet)</t>
+  </si>
+  <si>
+    <t>impactsCrop</t>
+  </si>
+  <si>
+    <t>impactsLivestock</t>
+  </si>
+  <si>
+    <t>impact* AND livestock</t>
+  </si>
+  <si>
+    <t>impact* AND fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.1 Food security and climate change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.2 Current state of food security and nutrition (FSN) including over &amp; undernutrition </t>
+  </si>
+  <si>
+    <t>impactsGeneral</t>
+  </si>
+  <si>
+    <t>pests</t>
+  </si>
+  <si>
+    <t>crop AND (pest* OR insect* or fung* OR weed* )</t>
+  </si>
+  <si>
+    <t>grainQuality</t>
+  </si>
+  <si>
+    <t>"grain quality"</t>
+  </si>
+  <si>
+    <t>livestockSystems</t>
+  </si>
+  <si>
+    <t>pastureForage</t>
+  </si>
+  <si>
+    <t>livestockDisease</t>
+  </si>
+  <si>
+    <t>livestock AND disease</t>
+  </si>
+  <si>
+    <t>forestrySystems</t>
+  </si>
+  <si>
+    <t>"*forestry system*"</t>
+  </si>
+  <si>
+    <t>genet* AND fish*</t>
+  </si>
+  <si>
+    <t>impactsFish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8.2 Global / regional adaptation effectiveness </t>
+  </si>
+  <si>
+    <t>5.7.6 Transitioning to sustainable food systems in the face of climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8.6 Policy implementation </t>
+  </si>
+  <si>
+    <t>searchStrings.RCP</t>
+  </si>
+  <si>
+    <t>searchStrings.SSP</t>
+  </si>
+  <si>
+    <t>searchStrings.regions</t>
+  </si>
+  <si>
+    <t>searchStrings.climateChange</t>
+  </si>
+  <si>
+    <t>c("impact*", "adapt*", "mitigat*")</t>
+  </si>
+  <si>
+    <t>searchStrings.animals</t>
+  </si>
+  <si>
+    <t>searchStrings.cereals</t>
+  </si>
+  <si>
+    <t>c("cereal*", "rice", "maize", "corn", "wheat", "sorghum", "millet")</t>
+  </si>
+  <si>
+    <t>searchStrings.fruits</t>
+  </si>
+  <si>
+    <t>c("frui*", "tomato*", "strawberr*", "blueberr*", "raspberr*", "grap*")</t>
+  </si>
+  <si>
+    <t>searchStrings.vegetables</t>
+  </si>
+  <si>
+    <t>searchStrings.roots</t>
+  </si>
+  <si>
+    <t>searchStrings.stimulants</t>
+  </si>
+  <si>
+    <t>c("coffee", "cocoa", "tea")</t>
+  </si>
+  <si>
+    <t>searchStrings.fish</t>
+  </si>
+  <si>
+    <t>c("fish", "seafood", "molluscs", "salmon", "tuna", "hake")</t>
+  </si>
+  <si>
+    <t>searchStrings.foodSec</t>
+  </si>
+  <si>
+    <t>searchStrings.notPeerRev</t>
+  </si>
+  <si>
+    <t>searchStrings.timePeriod</t>
+  </si>
+  <si>
+    <t>c("*century", "mid century", "end century", "2030", "2025", "2050", "2080", "2100")</t>
+  </si>
+  <si>
+    <t>searchStrings.econ</t>
+  </si>
+  <si>
+    <t>c("food security", "food insecure*",  "food access*", "food sufficien*", "food insufficien*","food stability")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("RCP", "RCP2.6", "RCP6.0", "RCP4.5", "RCP8.5", "CMIP", "SRES") </t>
+  </si>
+  <si>
+    <t>c("SSP",  "SSP1", "SSP2", "SSP3", "SSP4","SSP5")</t>
+  </si>
+  <si>
+    <t>c("Conference Proceeding", "Letter",  "Correction", "Editorial Material")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("Latin America", "Central America", "Caribbean",  "Europe", "Northern Europe", "Western Europe", "Southern Europe", "Eastern Europe", "Western Asia", "Middle East","Asia", "South Asia", "East Asia", "Central Asia", "Australia", "New Zealand","Southeast Asia", "Africa", "East Africa", "West Africa", "Central Africa", "North Africa") </t>
+  </si>
+  <si>
+    <t>c("veget*", "caulif*", "tomato*", "bean*", "pea")</t>
+  </si>
+  <si>
+    <t>c("cassava", "yam", "potato", "sweet potato")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("profit*", "financ*", "economic*", "price", "price variability") </t>
+  </si>
+  <si>
+    <t>c("ruminant", " , "cattle", "beef", "goat", "sheep", "pig", "swine",   "pork", "chicken", "poultry")</t>
+  </si>
+  <si>
+    <t>searchStringName</t>
+  </si>
+  <si>
+    <t>searchString</t>
+  </si>
+  <si>
+    <t>"livestock systems" OR "pastoral systems"</t>
+  </si>
+  <si>
+    <t>maladaptation</t>
+  </si>
+  <si>
+    <t>consum* OR "dietary choice" OR "food choice"</t>
+  </si>
+  <si>
+    <t>fiber OR fibre</t>
+  </si>
+  <si>
+    <t>livestock AND (rangeland OR feed OR forag*)</t>
+  </si>
+  <si>
+    <t>( flood OR drought OR storm OR "sea level rise" OR "extreme event" OR "heat wave") AND crop*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flood OR drought OR "sea level rise" OR "extreme event" OR "heat wave"</t>
+  </si>
+  <si>
+    <t>food AND (*securit* OR access* OR afford* OR insecur* OR *sufficien* OR choice* OR availab* OR utiliz* OR stabil* OR quality)</t>
+  </si>
+  <si>
+    <t>adaptation OR adaptive OR "adaptive capacity" OR "risk sharing" OR "risk spreading"</t>
+  </si>
+  <si>
+    <t>Fisheries OR fishing OR "fish resource" OR "fish products"</t>
+  </si>
+  <si>
+    <t>food AND vulnerability</t>
+  </si>
+  <si>
+    <t>"social protection" OR cooperation OR migration OR "climate services" OR "climate information"</t>
+  </si>
+  <si>
+    <t>"cropping system" AND cereal*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -882,6 +1078,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -904,16 +1107,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1229,784 +1448,1183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="30.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
+        <v>106</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{EB323E7F-C5BD-C24A-9909-3B5183F7D633}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E47">
+      <sortCondition ref="B1:B47"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B44446-4EFF-1748-B076-59F83F2A5201}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652E5710-150B-C14C-9032-4451AF876B8C}">
   <dimension ref="A1:A121"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/queries.xlsx
+++ b/data-raw/queries.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEBAEA8-D257-4D4D-BF0F-4D742EEE91A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C09534-F426-834A-9678-B4FFABE4AA06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="79960" yWindow="11260" windowWidth="27640" windowHeight="19500" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="41580" yWindow="680" windowWidth="27640" windowHeight="19500" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries" sheetId="1" r:id="rId1"/>
     <sheet name="searchTerms" sheetId="3" r:id="rId2"/>
-    <sheet name="WOSSearchOperators" sheetId="2" r:id="rId3"/>
+    <sheet name="CCSearchString" sheetId="5" r:id="rId3"/>
+    <sheet name="SCOPUSSearchOperators" sheetId="4" r:id="rId4"/>
+    <sheet name="WOSSearchOperators" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Queries!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="734">
   <si>
     <t>valueChain</t>
   </si>
@@ -48,9 +50,6 @@
   </si>
   <si>
     <t>storageLoss</t>
-  </si>
-  <si>
-    <t>fruitImpact</t>
   </si>
   <si>
     <t>FACEexperiments</t>
@@ -660,9 +659,6 @@
     <t xml:space="preserve"> financialization AND agriculture</t>
   </si>
   <si>
-    <t>impact* AND (frui* OR tomato* OR strawberr* OR blueberr* OR raspberr* OR grap*)</t>
-  </si>
-  <si>
     <t>"free air ozone" experiment*</t>
   </si>
   <si>
@@ -729,9 +725,6 @@
     <t>maize</t>
   </si>
   <si>
-    <t>potato</t>
-  </si>
-  <si>
     <t>soybean</t>
   </si>
   <si>
@@ -753,9 +746,6 @@
     <t>consumption</t>
   </si>
   <si>
-    <t>agriculture AND ( SSP OR "shared socioeconomic profile*" OR RCP OR "representative concentration pathway")</t>
-  </si>
-  <si>
     <t>crop AND (ozone or "air quality")</t>
   </si>
   <si>
@@ -846,9 +836,6 @@
     <t>grainQuality</t>
   </si>
   <si>
-    <t>"grain quality"</t>
-  </si>
-  <si>
     <t>livestockSystems</t>
   </si>
   <si>
@@ -864,9 +851,6 @@
     <t>forestrySystems</t>
   </si>
   <si>
-    <t>"*forestry system*"</t>
-  </si>
-  <si>
     <t>genet* AND fish*</t>
   </si>
   <si>
@@ -903,9 +887,6 @@
     <t>searchStrings.cereals</t>
   </si>
   <si>
-    <t>c("cereal*", "rice", "maize", "corn", "wheat", "sorghum", "millet")</t>
-  </si>
-  <si>
     <t>searchStrings.fruits</t>
   </si>
   <si>
@@ -915,9 +896,6 @@
     <t>searchStrings.vegetables</t>
   </si>
   <si>
-    <t>searchStrings.roots</t>
-  </si>
-  <si>
     <t>searchStrings.stimulants</t>
   </si>
   <si>
@@ -960,12 +938,6 @@
     <t xml:space="preserve">c("Latin America", "Central America", "Caribbean",  "Europe", "Northern Europe", "Western Europe", "Southern Europe", "Eastern Europe", "Western Asia", "Middle East","Asia", "South Asia", "East Asia", "Central Asia", "Australia", "New Zealand","Southeast Asia", "Africa", "East Africa", "West Africa", "Central Africa", "North Africa") </t>
   </si>
   <si>
-    <t>c("veget*", "caulif*", "tomato*", "bean*", "pea")</t>
-  </si>
-  <si>
-    <t>c("cassava", "yam", "potato", "sweet potato")</t>
-  </si>
-  <si>
     <t xml:space="preserve">c("profit*", "financ*", "economic*", "price", "price variability") </t>
   </si>
   <si>
@@ -1014,14 +986,4249 @@
     <t>"social protection" OR cooperation OR migration OR "climate services" OR "climate information"</t>
   </si>
   <si>
-    <t>"cropping system" AND cereal*</t>
+    <t>"cropping system" AND (intercrop OR "sequential crop" OR "relay crop" OR "multi* crop" OR "crop rotation" OR "mix tree-crop*" OR "traditional crop" or "indigenous crop" perennial OR "minor crop")</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>vegetable</t>
+  </si>
+  <si>
+    <t>apple OR apricot OR peach OR avocado OR eggplant OR grape OR mango OR melon OR fig OR pineapple OR plantain OR banana OR plum OR cherr* OR papaya OR pear OR strawberr* OR raspberrr* OR tomat*</t>
+  </si>
+  <si>
+    <t>"grain quality" OR "nutrient composition"</t>
+  </si>
+  <si>
+    <t>legume</t>
+  </si>
+  <si>
+    <t>c("broccoli", "cauliflower", "broccoli", "okra", "pumpkin", "chili*", "spinach", "pea", "tomato")</t>
+  </si>
+  <si>
+    <t>Scopus Search Guide</t>
+  </si>
+  <si>
+    <t>Search Language</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SCOPUS Search API supports a Boolean syntax, which is a type of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> allowing users to combine keywords with operators such as AND, NOT and OR to further produce more relevant results. For example, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Boolean search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> could be "heart" AND "brain". This would limit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> results to only those documents containing the two keywords.</t>
+    </r>
+  </si>
+  <si>
+    <t>URL encoding</t>
+  </si>
+  <si>
+    <t>The Boolean search is submitted through the query string parameter 'query'. As with all other query string parameters, the contents of the submitted search must be URL-encoded. It should be noted that the '+' character serves a special purpose as a query string value, functioning as an equivalent to the space character (i.e. %20). In order to submit a literal character '+' it must be properly URL-encoded (i.e. %2B).</t>
+  </si>
+  <si>
+    <t>This search...</t>
+  </si>
+  <si>
+    <t>must be URL-encoded as:</t>
+  </si>
+  <si>
+    <t>KEY(mouse AND NOT cat OR dog)</t>
+  </si>
+  <si>
+    <t>KEY%28mouse+AND+NOT+cat+OR+dog%29</t>
+  </si>
+  <si>
+    <t>KEY(cat AND dog AND NOT rodent OR mouse)</t>
+  </si>
+  <si>
+    <t>KEY%28cat+AND+dog+AND+NOT+rodent+OR+mouse%29</t>
+  </si>
+  <si>
+    <t>DOI("10.1021/es052595+")</t>
+  </si>
+  <si>
+    <t>DOI%28%2210.1021%2Fes052595%2B%22%29</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>http://api.elsevier.com/content/search/scopus?query=DOI%28%2210.1021%2Fes052595%2B%22%29</t>
+  </si>
+  <si>
+    <t>Using boolean operators</t>
+  </si>
+  <si>
+    <t>You can use Boolean operators (AND, OR, AND NOT) in your search. If you use more than one operator in your search, Scopus interprets your search according to the order of precedence. You can also use proximity operators (pre/n, w/n) with Boolean operators.</t>
+  </si>
+  <si>
+    <t>Finds only those documents that contain all of the terms.</t>
+  </si>
+  <si>
+    <t>Use AND when all the terms must appear and may be far apart from each other. </t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>lesion AND pancreatic</t>
+  </si>
+  <si>
+    <t>Finds documents that contain any of the terms.</t>
+  </si>
+  <si>
+    <t>Use OR when at least one of the terms must appear (such as synonyms, alternate spellings, or abbreviations).</t>
+  </si>
+  <si>
+    <t>AND NOT</t>
+  </si>
+  <si>
+    <t>Excludes documents that include the specified term from the search.</t>
+  </si>
+  <si>
+    <t>Use AND NOT to exclude specific terms. This connector must be used at the end of a search.</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>If you are searching for a phrase which contains the word "and," omit the word "and" from your search. For example:profit loss finds the phrase "profit and loss"</t>
+  </si>
+  <si>
+    <t>kidney OR renal</t>
+  </si>
+  <si>
+    <t>ganglia OR tumor AND NOT malignant</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you want to search for the words </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>and not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> literally, enter them in double quotation marks: "and", "or", "and not".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         If you enter more than one word or phrase in the same text box without using an operator, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is assumed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Order of precedence rules</t>
+  </si>
+  <si>
+    <t>Searches with multiple operators are processed in the following order:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND NOT</t>
+    </r>
+  </si>
+  <si>
+    <t>After the precedence rules are applied, the search is read left to right.</t>
+  </si>
+  <si>
+    <t>All these searches...</t>
+  </si>
+  <si>
+    <t>are processed as...</t>
+  </si>
+  <si>
+    <t>KEY (mouse OR rat AND rodent)</t>
+  </si>
+  <si>
+    <t>KEY (rodent AND rat OR mouse)</t>
+  </si>
+  <si>
+    <t>KEY (rat OR mouse AND rodent)</t>
+  </si>
+  <si>
+    <t>KEY(mouseOR rat) AND rodent</t>
+  </si>
+  <si>
+    <t>is processed as...</t>
+  </si>
+  <si>
+    <t>KEY (mouse AND NOT cat OR dog)</t>
+  </si>
+  <si>
+    <t>KEY (cat AND dog AND NOT rodent OR mouse)</t>
+  </si>
+  <si>
+    <t>KEY((mouse) AND NOT (cat OR dog))</t>
+  </si>
+  <si>
+    <t>KEY((cat AND dog) AND NOT (rodent OR mouse))</t>
+  </si>
+  <si>
+    <r>
+      <t>AND NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> can give unexpected results when you have multiple operators. We recommend that you put it at the end of your searches.</t>
+    </r>
+  </si>
+  <si>
+    <t>For example, the following searches return a large number of results:</t>
+  </si>
+  <si>
+    <t>         KEY(cold) AND NOT KEY(influenza)</t>
+  </si>
+  <si>
+    <t>         KEY(cold) AND NOT KEY(influenza) AND KEY(rhinovirus)</t>
+  </si>
+  <si>
+    <t>         KEY(cold) AND NOT (KEY(influenza) AND KEY(rhinovirus))</t>
+  </si>
+  <si>
+    <t>To exclude influenza from your search, you should use the following search instead:</t>
+  </si>
+  <si>
+    <t>KEY(cold) AND KEY(rhinovirus) AND NOT KEY(influenza)</t>
+  </si>
+  <si>
+    <t>Proximity operators</t>
+  </si>
+  <si>
+    <t>Scopus does not support using the operators (AND or AND NOT) as an argument to a proximity expression.</t>
+  </si>
+  <si>
+    <t>cat pre/10 (dog AND mouse) - invalid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However, cat pre/10 dog AND mouse is valid because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>  has a lower precedence, so the search is effectively (cat pre/10 dog) AND mouse</t>
+    </r>
+  </si>
+  <si>
+    <t>However, you can use the operator OR with a proximity operator.</t>
+  </si>
+  <si>
+    <t>(water OR vinegar OR wine) w/5 (oil OR yogurt)</t>
+  </si>
+  <si>
+    <t>Phrases</t>
+  </si>
+  <si>
+    <t>You can search for phrases in two ways depending on how exact a match you want to find. You can find an exact phrase or a loose or approximate phrase.</t>
+  </si>
+  <si>
+    <t>To search for an exact phrase</t>
+  </si>
+  <si>
+    <t>To find documents that contain an exact phrase, including any stop words, spaces, and punctuation, enclose the phrase in braces: {oyster toadfish}.</t>
+  </si>
+  <si>
+    <t>If you enter {oyster toadfish}, the search finds only documents that contain that exact phrase. In contrast, if you enter oyster toadfish, your search interprets that as "oyster AND toadfish" and finds documents containing both terms appearing separately or together.</t>
+  </si>
+  <si>
+    <t>Special characters are included in the search.</t>
+  </si>
+  <si>
+    <t>Searching for {heart-attack} or {heart attack} returns different results because the dash (-) is considered in the search.</t>
+  </si>
+  <si>
+    <t>         Wildcards are searched as characters.</t>
+  </si>
+  <si>
+    <t>Searching for {health care?} returns results such as: Who pays for health care?.</t>
+  </si>
+  <si>
+    <t>To search for a loose or approximate phrase</t>
+  </si>
+  <si>
+    <t>To find documents where your search terms appear adjacent to each other, enclose the terms in double quotation marks: "cell behaviour".</t>
+  </si>
+  <si>
+    <t>When you use double quotation marks:</t>
+  </si>
+  <si>
+    <t>         AND is not automatically inserted between terms.</t>
+  </si>
+  <si>
+    <t>Entering "heart attack"returns different results than heart attack because the latter would be searched as heart AND attack, which would find documents that contained both words, even if they were far apart from each other. The search "heart attack" only finds documents where heart and attack are adjacent to each other.</t>
+  </si>
+  <si>
+    <t>         Punctuation is ignored.</t>
+  </si>
+  <si>
+    <t>Entering "heart-attack" or "heart attack" returns the same results because the hyphen is ignored.</t>
+  </si>
+  <si>
+    <t>         Wildcards are searched as wildcards.</t>
+  </si>
+  <si>
+    <t>Searching for "criminal* insan*" finds criminally insane and criminal insanity.</t>
+  </si>
+  <si>
+    <t>         Plurals are included.</t>
+  </si>
+  <si>
+    <t>Searching for "heart attack" finds heart attack and heart attacks.</t>
+  </si>
+  <si>
+    <t>         Double quotation marks can also be used to search specifically for stop words, special characters, or punctuation marks, which would otherwise be ignored. To search for the double quotation character itself, place a backslash before it and enclose those 2 characters in double quotation marks:</t>
+  </si>
+  <si>
+    <t>Searching for "\"" finds "</t>
+  </si>
+  <si>
+    <t>Wildcards</t>
+  </si>
+  <si>
+    <t>Use wildcard characters to search for variations of a word, making your search shorter and simpler.</t>
+  </si>
+  <si>
+    <t>Only one wildcard can be included in a single term.</t>
+  </si>
+  <si>
+    <t>Use this wildcard...</t>
+  </si>
+  <si>
+    <t>To do this...</t>
+  </si>
+  <si>
+    <t>Question Mark (?)</t>
+  </si>
+  <si>
+    <t>Replace a single character anywhere in a word. Use one question mark for each character you want to replace.</t>
+  </si>
+  <si>
+    <t>Asterisk (*)</t>
+  </si>
+  <si>
+    <t>Replace multiple characters anywhere in a word.</t>
+  </si>
+  <si>
+    <t>behav* finds behave, behavior, behaviour, behavioural, behaviourism, etc.</t>
+  </si>
+  <si>
+    <t>The asterisk replaces 0 or more characters, so it can be used to find any number or to indicate a character that may or may not be present.</t>
+  </si>
+  <si>
+    <t>AFFIL(nure?berg) finds Nuremberg, Nurenberg</t>
+  </si>
+  <si>
+    <t>*tocopherol finds α-tocopherol, γ-tocopherol , δ-tocopherol, tocopherol, tocopherols, etc.</t>
+  </si>
+  <si>
+    <t>Scopus finds variant spellings and matches Greek characters and their common American/British English variant spellings.</t>
+  </si>
+  <si>
+    <t>Field Restriction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for a term in a specific </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by entering the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> name in your Advanced </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>field_name (search term)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TITLE-ABS-KEY(prion disease) returns documents where the terms appear in the title, keywords, or abstract.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> INDEXTERMS(prion disease)returns documents with the indexing term prion disease.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A limited number of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> codes are available.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         Enter </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> codes in upper or lower case.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         Make sure to use the correct </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> code spelling, including hyphens.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         Not all documents contain all </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Searching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> specific </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> may prevent some articles from appearing in your </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> results.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">@ = included in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> search</t>
+    </r>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the following </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: ABS, AFFIL, ARTNUM, AUTH, AUTHCOLLAB, CHEM, CODEN, CONF, DOI, EDITOR, ISBN, ISSN, ISSUE, KEY, LANGUAGE, MANUFACTURER, PUBLISHER, PUBYEAR, REF, SEQBANK, SEQNUMBER, SRCTITLE, VOLUME, and TITLE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALL("heart attack") returns documents with "heart attack" in any of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> listed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ABS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>A summary of the document.</t>
+  </si>
+  <si>
+    <t>ABS(dopamine)returns documents where "dopamine" is in the document abstract.</t>
+  </si>
+  <si>
+    <r>
+      <t>AF-ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Affiliation ID</t>
+  </si>
+  <si>
+    <t>A unique identification number assigned to organizations affiliated with Scopus authors.</t>
+  </si>
+  <si>
+    <t>AF-ID("Harvard Medical School" 3000604) or AF-ID(3000604) returns documents written by authors affiliated with Harvard Medical School and variants of that name stored in Scopus.</t>
+  </si>
+  <si>
+    <r>
+      <t>AFFIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the AFFIL </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, you can specify if you want all of your </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> terms to be found in the same affiliation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AFFIL is a combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the following author address </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>         AFFILCITY</t>
+  </si>
+  <si>
+    <t>         AFFILCOUNTRY</t>
+  </si>
+  <si>
+    <t>         AFFILORG.</t>
+  </si>
+  <si>
+    <t>The difference between using the field by itself and qualifying terms within subfields is that unqualified terms match against all author affiliations in a particular document and qualifying by subfields matches a specific author affiliation within the document (see example).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To find documents where your </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> terms occur in the same affiliation, use:</t>
+    </r>
+  </si>
+  <si>
+    <t>AFFIL(london and hospital)</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>AFFIL(AFFILCITY(london) AFFILORG(hospital))</t>
+  </si>
+  <si>
+    <t>         To find documents where both terms appear in a document's affiliation, but not necessarily in the same affiliation, use:</t>
+  </si>
+  <si>
+    <t>AFFIL (london) and AFFIL (hospital)</t>
+  </si>
+  <si>
+    <t>AFFILCITY</t>
+  </si>
+  <si>
+    <t>Affiliation city.</t>
+  </si>
+  <si>
+    <t>The city portion of an author address.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AFFILCITY(beijing) returns documents where "beijing" is the city in the author affiliation </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, such as:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beijing Engineering Software Technology Co., Ltd., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Beijing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100081, China</t>
+    </r>
+  </si>
+  <si>
+    <t>AFFILCOUNTRY</t>
+  </si>
+  <si>
+    <t>Affiliation country.</t>
+  </si>
+  <si>
+    <t>The country portion of an author address.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AFFILCOUNTRY(japan) returns documents where "japan" is the country in the author affiliation </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, such as:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sojo University, Kumamoto 860-0082, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Japan</t>
+    </r>
+  </si>
+  <si>
+    <t>AFFILORG</t>
+  </si>
+  <si>
+    <t>Affiliation organization.</t>
+  </si>
+  <si>
+    <t>The organization portion of an author address.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AFFILORG(toronto)returns documents where "toronto" is the organization in the author affiliation </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, such as:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Department of Mathematics, University of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toronto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Toronto, Ont. M5S 3G3, Canada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ARTNUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Article Number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A persistent identifier for a document used by a few publishers instead of, or in addition to, page numbers. Article numbers can be assigned at the time of electronic publication, so documents can be cited and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searched</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for earlier in the publication process.</t>
+    </r>
+  </si>
+  <si>
+    <t>ARTNUM(1)returns documents with article numbers, such as:</t>
+  </si>
+  <si>
+    <t>         art. no. 1</t>
+  </si>
+  <si>
+    <t>         art. no. EGT-Nr 1.096</t>
+  </si>
+  <si>
+    <r>
+      <t>AU-ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Author Identifier Number</t>
+  </si>
+  <si>
+    <t>A unique identification number assigned to Scopus authors. For more information, see Scopus Author Identifier.</t>
+  </si>
+  <si>
+    <t>AU-ID("Sato, A." 100038831) or AU-ID(100038831) returns documents authored by Sato, A. and variants of that name stored in Scopus.</t>
+  </si>
+  <si>
+    <t>AUTHOR-NAME</t>
+  </si>
+  <si>
+    <t>Author Name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The name of an author. This </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> finds variants for a single author name.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUTHOR-NAME is a combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the following author </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>         AUTHLASTNAME</t>
+  </si>
+  <si>
+    <t>         AUTHFIRST</t>
+  </si>
+  <si>
+    <t>         AUTHSUFFIX</t>
+  </si>
+  <si>
+    <t>         AUTHNAME</t>
+  </si>
+  <si>
+    <t>The difference between using the field by itself and qualifying terms within subfields is that unqualified terms match against all authors of the document and qualifying by subfields matches a specific author in the document (see example).</t>
+  </si>
+  <si>
+    <t>A comma can be used to separate last name and first name. The terms will automatically be qualified as AUTHLASTNAME and AUTHFIRST, respectively (see example).</t>
+  </si>
+  <si>
+    <t>AUTHOR-NAME(carrera, s) returns documents with "carrera in the last name and s" in the first name for a specific author, including:</t>
+  </si>
+  <si>
+    <t>         Carrera, F S</t>
+  </si>
+  <si>
+    <t>         Carrera, S</t>
+  </si>
+  <si>
+    <t>         Carrera, S R</t>
+  </si>
+  <si>
+    <t>         Carrera, Samuele</t>
+  </si>
+  <si>
+    <t>         Carrera Daz, S</t>
+  </si>
+  <si>
+    <t>         Carrera Justiz, S C</t>
+  </si>
+  <si>
+    <t>         Dueas Carrera, S</t>
+  </si>
+  <si>
+    <t>         Snchez Carrera, S</t>
+  </si>
+  <si>
+    <r>
+      <t>AUTH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the following author </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUTH(jr) returns documents with "jr" in the last name and first initial </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, including:</t>
+    </r>
+  </si>
+  <si>
+    <t>         Finn Jr., C.E.</t>
+  </si>
+  <si>
+    <t>         Jenkins, J.R.</t>
+  </si>
+  <si>
+    <t>AUTHFIRST</t>
+  </si>
+  <si>
+    <t>Author first initial</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUTHFIRST(j) returns documents with "j" in the author first initial </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, including:</t>
+    </r>
+  </si>
+  <si>
+    <t>         Yu, J.</t>
+  </si>
+  <si>
+    <t>         Paradi, J.C.</t>
+  </si>
+  <si>
+    <t>         Handelman, C.J.</t>
+  </si>
+  <si>
+    <t>         Da Costa, J.C.S</t>
+  </si>
+  <si>
+    <t>AUTHLASTNAME</t>
+  </si>
+  <si>
+    <t>Author last name (family name)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUTHLASTNAME(barney) returns documents with "barney" in the author last name </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AUTHCOLLAB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Collaboration Author</t>
+  </si>
+  <si>
+    <t>The name by which a group of authors is known.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUTHCOLLAB("alpha group") returns documents with "alpha group" in the collaboration </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>AUTHKEY</t>
+  </si>
+  <si>
+    <t>Author Keywords. Keywords assigned to the document by the author.</t>
+  </si>
+  <si>
+    <t>AUTHKEY(stroke)returns documents where "stroke" is an author keyword.</t>
+  </si>
+  <si>
+    <t>CASREGNUMBER</t>
+  </si>
+  <si>
+    <t>CAS registry number</t>
+  </si>
+  <si>
+    <t>A numeric identifier assigned to a substance when it enters the CAS registry database.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CASREGNUMBER(1199-18-4)returns documents with "1199-18-4" in the CAS registry </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>CHEM</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the CHEMNAME and CASREGNUMBER </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CHEM(oxidopamine)returns documents with "oxidopamine" in the chemical name or CAS registry number </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHEMNAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Chemical name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CHEMNAME(oxidopamine)returns documents with "oxidopamine" in the chemical name </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CODEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>A unique, code that identifies serial and nonserial publications.</t>
+  </si>
+  <si>
+    <t>CODEN(rnene) returns documents in the specified publication.</t>
+  </si>
+  <si>
+    <r>
+      <t>CONF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Conference Information</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> information about a conference or a conference proceeding in the CONFNAME, CONFSPONSORS, and CONFLOC </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>CONF(electrical transmission) returns documents such as:</t>
+  </si>
+  <si>
+    <t>Proceedings of the Conference: Electrical Transmission in a New Age</t>
+  </si>
+  <si>
+    <t>CONFLOC</t>
+  </si>
+  <si>
+    <t>Conference location</t>
+  </si>
+  <si>
+    <r>
+      <t>CONFLOC(Tokyo)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>returns documents such as:</t>
+    </r>
+  </si>
+  <si>
+    <t>Proceedings - Seventh International Conference on High Performance Computing and Grid in Asia Pacific Region, HPCAsia 2004; Tokyo;</t>
+  </si>
+  <si>
+    <t>CONFNAME</t>
+  </si>
+  <si>
+    <t>Conference name</t>
+  </si>
+  <si>
+    <t>CONFNAME(electrical transmission)returns documents such as:</t>
+  </si>
+  <si>
+    <t>CONFSPONSORS</t>
+  </si>
+  <si>
+    <t>Conference sponsors</t>
+  </si>
+  <si>
+    <t>CONFSPONSORS(IEEE)returns documents such as:</t>
+  </si>
+  <si>
+    <t>         IEEE Aerospace Conference Proceedings</t>
+  </si>
+  <si>
+    <t>         2004 IEEE 6th Workshop on Multimedia Signal Processing</t>
+  </si>
+  <si>
+    <t>DOCTYPE (XX)</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Possible values for XX are:</t>
+  </si>
+  <si>
+    <t>DOCTYPE(ar)returns documents classified as articles.</t>
+  </si>
+  <si>
+    <r>
+      <t>DOI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Digital Object Identifier (DOI)</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric string created to identify a piece of intellectual property in an online environment.</t>
+  </si>
+  <si>
+    <t>DOI(10.1007/s00202-004-0261-3)returns the document with the matching DOI.</t>
+  </si>
+  <si>
+    <t>EDFIRST</t>
+  </si>
+  <si>
+    <t>Editor first name (given name)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EDFIRST(michael) returns documents with "michael" in the first name </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EDITOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the following </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: EDLASTNAME and EDFIRST.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EDITOR(smith) returns documents with "smith" in the editor last name and first initial </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>EDLASTNAME</t>
+  </si>
+  <si>
+    <t>Editor last name (family name)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EDITOR(smith) returns documents with "smith" in the editor last name </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>EISSN</t>
+  </si>
+  <si>
+    <t>Electronic International Standard Serial Number</t>
+  </si>
+  <si>
+    <t>The ISSN of the electronic version of a serial publication.</t>
+  </si>
+  <si>
+    <t>EISSN(0-7623-106) or (07623106) returns documents containing "0762310669" as well as any other document containing single or multiple hyphens in any possible combination within "0-7623-106".</t>
+  </si>
+  <si>
+    <t>EXACTSRCTITLE</t>
+  </si>
+  <si>
+    <t>Exact Source Title</t>
+  </si>
+  <si>
+    <r>
+      <t>Searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the title of the journal, book, conference proceeding, or report in which the document was published.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exact source title </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> do not find variations of your </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> termsonly sources that contain the exact words in your </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> are returned.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EXACTSRCTITLE(behavior)returns documents published in the source "Physiology and Behavior", but not documents in the source "Addictive Behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t>FIRSTAUTH</t>
+  </si>
+  <si>
+    <t>First Author</t>
+  </si>
+  <si>
+    <t>The first author listed for a document.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FIRSTAUTH(Liming, T) returns documents with authors listed as 'Liming, T., Mingan, S., Jiangzhong, Y., Zhenhua, T.'  The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> does not return a document with authors listed as 'Mingan, S., Jiangzhong, Y., Liming, T., Zhenhua, T.', since Liming T. is not the first author in the author list.</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND-SPONSOR</t>
+  </si>
+  <si>
+    <t>Funding sponsor.</t>
+  </si>
+  <si>
+    <t>FUND-SPONSOR(National Aeronautics and Space Administration) returns documents with National Aeronautics and Space Administration mentioned as the sponsor name in the acknowledgements section of the article.</t>
+  </si>
+  <si>
+    <t>FUND-ACR</t>
+  </si>
+  <si>
+    <t>Funding sponsor acronym.</t>
+  </si>
+  <si>
+    <t>FUND-ACR(NASA) returns documents with NASA mentioned as the sponsor acronym in the acknowledgements section of the article.</t>
+  </si>
+  <si>
+    <t>FUND-NO</t>
+  </si>
+  <si>
+    <t>Funding grant number.</t>
+  </si>
+  <si>
+    <t>FUND-NO(CDA-8619893) returns documents with CDA-8619893 mentioned as the grant number in the acknowledgements section of the article.</t>
+  </si>
+  <si>
+    <t>INDEXTERMS</t>
+  </si>
+  <si>
+    <t>Index terms.</t>
+  </si>
+  <si>
+    <t>Controlled vocabulary terms assigned to the document.</t>
+  </si>
+  <si>
+    <t>INDEXTERMS(Fluorimetric assay) returns documents where "fluorimetric assay " is an index term. Not available with default API key permissions.</t>
+  </si>
+  <si>
+    <r>
+      <t>ISBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>International Standard Book Number</t>
+  </si>
+  <si>
+    <t>A unique identification number assigned to all books.</t>
+  </si>
+  <si>
+    <t>ISBN(9780123456789)returns documents containing "9780123456789" as well as any other document containing single or multiple hyphens in any possible combination within "978-0-123-45678-9".</t>
+  </si>
+  <si>
+    <r>
+      <t>ISSN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>International Standard Serial Number</t>
+  </si>
+  <si>
+    <t>A unique identification number assigned to all serial publications.</t>
+  </si>
+  <si>
+    <t>ISSN(0959-8278) or (09598278) returns documents containing "09598278" as well as any other document containing single or multiple hyphens in any possible combination within "0959-8278".</t>
+  </si>
+  <si>
+    <r>
+      <t>Searching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on the ISSN </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> also </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the ISSNP and EISSN </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ISSNP</t>
+  </si>
+  <si>
+    <t>Print International Standard Serial Number</t>
+  </si>
+  <si>
+    <t>The ISSN of the print version of a serial publication.</t>
+  </si>
+  <si>
+    <t>ISSNP(0-7623-106) or (07623106) returns documents containing "0762310669" as well as any other document containing single or multiple hyphens in any possible combination within "0-7623-106".</t>
+  </si>
+  <si>
+    <t>ISSUE</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Identifier for a serial publication.</t>
+  </si>
+  <si>
+    <t>ISSUE(summer)returns documents with an issue identifier of "summer".</t>
+  </si>
+  <si>
+    <r>
+      <t>KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the AUTHKEY, INDEXTERMS, TRADENAME, and CHEMNAME </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>KEY(oscillator)returns documents where "oscillator" is a keyword.</t>
+  </si>
+  <si>
+    <r>
+      <t>LANGUAGE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>The language in which the original document was written.</t>
+  </si>
+  <si>
+    <t>LANGUAGE(french)returns documents originally written in French.</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MANUFACTURER(sigma)returns documents with "sigma" in the keywords </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>OPENACCESS</t>
+  </si>
+  <si>
+    <t>Open Access</t>
+  </si>
+  <si>
+    <t>OPENACCESS(1)returns Open Access content indexed in Scopus.</t>
+  </si>
+  <si>
+    <t>OPENACCESS(0)returns subscription-based content indexed in Scopus.</t>
+  </si>
+  <si>
+    <t>PAGEFIRST</t>
+  </si>
+  <si>
+    <t>First page</t>
+  </si>
+  <si>
+    <t>PAGEFIRST(9)returns documents with page numbers, such as:</t>
+  </si>
+  <si>
+    <t>         9</t>
+  </si>
+  <si>
+    <t>         9-16</t>
+  </si>
+  <si>
+    <t>PAGELAST</t>
+  </si>
+  <si>
+    <t>Last page</t>
+  </si>
+  <si>
+    <t>PAGELAST(9)returns documents with page numbers, such as:</t>
+  </si>
+  <si>
+    <t>PAGES</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A combination </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the PAGEFIRST and PAGELAST </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>PAGES(1-2)returns documents with a page number range of "1-2".</t>
+  </si>
+  <si>
+    <t>PAGES(9)returns documents with page numbers, such as:</t>
+  </si>
+  <si>
+    <t>         1-9</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>PubMed Identifier</t>
+  </si>
+  <si>
+    <t>A unique identifier for all Medline documents.</t>
+  </si>
+  <si>
+    <t>PMID(10676951)returns documents that have a PubMed Identifier of "10676951".</t>
+  </si>
+  <si>
+    <r>
+      <t>PUBLISHER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A text </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> indicating the name of the publisher.</t>
+    </r>
+  </si>
+  <si>
+    <t>PUBLISHER(Elsevier) returns documents published by "Elsevier".</t>
+  </si>
+  <si>
+    <t>PUBYEAR</t>
+  </si>
+  <si>
+    <t>Year of Publication</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A numeric </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> indicating the year of publication.</t>
+    </r>
+  </si>
+  <si>
+    <t>PUBYEAR &gt; 1994 returns documents with a publication year after 1994.</t>
+  </si>
+  <si>
+    <t>         PUBYEAR &lt; 1994 returns documents with a publication year before 1994.</t>
+  </si>
+  <si>
+    <t>         PUBYEAR = 1994 returns documents with a publication year of 1994.</t>
+  </si>
+  <si>
+    <r>
+      <t>REF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the REF </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, you can specify if you want all of your </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> terms to be found in the same reference.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REF is a combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches:</t>
+    </r>
+  </si>
+  <si>
+    <t>         REFAUTH</t>
+  </si>
+  <si>
+    <t>         REFTITLE</t>
+  </si>
+  <si>
+    <t>         REFSRCTITLE</t>
+  </si>
+  <si>
+    <t>         REFPUBYEAR</t>
+  </si>
+  <si>
+    <t>         REFPAGE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To find documents where your </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> terms occur in the same reference, use:</t>
+    </r>
+  </si>
+  <si>
+    <t>REF(darwin 1859)</t>
+  </si>
+  <si>
+    <t>         To find documents where both terms appear in a document's references, but not necessarily in the same reference, use:</t>
+  </si>
+  <si>
+    <t>REF(darwin) and REF(1859)</t>
+  </si>
+  <si>
+    <t>REFAUTH</t>
+  </si>
+  <si>
+    <t>Reference authors.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REFAUTH is a combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches:</t>
+    </r>
+  </si>
+  <si>
+    <t>         REFAUTHLASTNAME</t>
+  </si>
+  <si>
+    <t>         REFAUTHFIRST</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REFAUTH(Wu)returns documents with "Wu" in their reference author </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>REFTITLE</t>
+  </si>
+  <si>
+    <t>Reference title</t>
+  </si>
+  <si>
+    <t>REFTITLE(dioxin)returns documents with "dioxin" in their reference title.</t>
+  </si>
+  <si>
+    <t>REFSRCTITLE</t>
+  </si>
+  <si>
+    <t>Reference source title</t>
+  </si>
+  <si>
+    <t>REFSRCTITLE(neuropharmacology) returns documents where "neuropharmacology" is in the source title of a reference.</t>
+  </si>
+  <si>
+    <t>REFPUBYEAR</t>
+  </si>
+  <si>
+    <t>Reference year</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A numeric </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> indicating the year of publication of a document reference.</t>
+    </r>
+  </si>
+  <si>
+    <t>REFPUBYEAR IS 1994 returns documents with references published in 1994.</t>
+  </si>
+  <si>
+    <t>REFARTNUM</t>
+  </si>
+  <si>
+    <t>REFARTNUM(1)returns documents where "1" is in the article number of a document reference, such as:</t>
+  </si>
+  <si>
+    <t>         rt. no. EGT-Nr 1.096</t>
+  </si>
+  <si>
+    <t>REFPAGE</t>
+  </si>
+  <si>
+    <t>Reference page numbers</t>
+  </si>
+  <si>
+    <t>REFPAGE(75)returns documents where "75" is in the page numbering of a document reference, such as:</t>
+  </si>
+  <si>
+    <t>         pp. 71-75</t>
+  </si>
+  <si>
+    <t>         75 pp.</t>
+  </si>
+  <si>
+    <t>REFPAGEFIRST</t>
+  </si>
+  <si>
+    <t>First Page</t>
+  </si>
+  <si>
+    <t>REFPAGEFIRST(5)returns documents where "5" is in the page numbering of a document reference, such as:</t>
+  </si>
+  <si>
+    <t>         pp. 854-879</t>
+  </si>
+  <si>
+    <t>         pp. 5-7</t>
+  </si>
+  <si>
+    <t>SEQBANK</t>
+  </si>
+  <si>
+    <t>Sequence Bank</t>
+  </si>
+  <si>
+    <t>The name of the sequence bank that lists a nucleotide or amino acid sequence that is defined or mentioned in a document.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SEQBANK(GenBank)returns documents with "GenBank" in the keywords </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>SEQNUMBER</t>
+  </si>
+  <si>
+    <t>Sequence Bank Accession Number</t>
+  </si>
+  <si>
+    <t>The number assigned to an amino acid or nucleotide sequence defined or mentioned in a document.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SEQNUMBER(AB013289)returns documents with "AB013289" in the keywords </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SRCTITLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Source Title</t>
+  </si>
+  <si>
+    <t>The title of the journal, book, conference proceeding, or report in which the document was published.</t>
+  </si>
+  <si>
+    <t>SRCTITLE(pacific)returns documents with "pacific" in the source title, such as:</t>
+  </si>
+  <si>
+    <t>         Asia-Pacific Journal of Public Health</t>
+  </si>
+  <si>
+    <t>         Pacific Conservation Biology</t>
+  </si>
+  <si>
+    <t>         1989 Asia-Pacific Conference</t>
+  </si>
+  <si>
+    <t>SRCTYPE (XX)</t>
+  </si>
+  <si>
+    <t>Source Type</t>
+  </si>
+  <si>
+    <t>SRCTYPE(j)returns documents from journal sources.</t>
+  </si>
+  <si>
+    <t>SUBJAREA(XX)</t>
+  </si>
+  <si>
+    <t>Subject Area</t>
+  </si>
+  <si>
+    <t>SUBJAREA(CHEM)returns documents classified under the subject area Chemistry.</t>
+  </si>
+  <si>
+    <r>
+      <t>TITLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <t>Article Title</t>
+  </si>
+  <si>
+    <t>The title of an article.</t>
+  </si>
+  <si>
+    <t>TITLE("neuropsychological evidence") returns documents with the phrase "neuropsychological evidence" in their title.</t>
+  </si>
+  <si>
+    <t>TITLE-ABS-KEY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> abstracts, keywords, and article titles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TITLE-ABS-KEY("heart attack") returns documents with "heart attack" in their abstracts, article titles, or keyword </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>TITLE-ABS-KEY-AUTH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A combined </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> abstracts, article titles, keywords, and author names.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TITLE-ABS-KEY-AUTH(heart attack)returns documents with "heart attack" in their abstracts, article titles, keywords, or author name </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>TRADENAME</t>
+  </si>
+  <si>
+    <t>A name used to identify a commercial product or service.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TRADENAME(morbilvax) returns documents with "morbilvax" in the keywords </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>VOLUME(34) returns documents with a volume number of 34.</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>The URL of a website cited in the reference.</t>
+  </si>
+  <si>
+    <t>WEBSITE (bbc.co.uk) finds documents with this URL in the references.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> using just the affiliation name. For example entering AF-ID("Harvard Medical School") would not result in a match.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         Boolean operators cannot be used within the AF-ID </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the AU-ID </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by entering an author name. For example entering AU-ID("Sato, A.") would not result in a match.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         Boolean operators cannot be used in the AU-ID </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for an article includes conference papers.</t>
+    </r>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Abstract Report</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>Article in Press</t>
+  </si>
+  <si>
+    <t>bk</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>bz</t>
+  </si>
+  <si>
+    <t>Business Article</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>Book Chapter</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>Conference Paper</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>Conference Review</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>Erratum</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>Press Release</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>Short Survey</t>
+  </si>
+  <si>
+    <t>You can indicate the year using the following operators:</t>
+  </si>
+  <si>
+    <t>         &lt; - Before</t>
+  </si>
+  <si>
+    <t>         &gt; - After</t>
+  </si>
+  <si>
+    <t>         = - Equal to</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can continue to use the older notation for the above 3 operators (BEF, AFT, and IS, respectively) in numeric </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; saved </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>searches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and alerts will continue to work as before.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REF </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> results include the URL of a website where applicable.</t>
+    </r>
+  </si>
+  <si>
+    <t>You can indicate the year using the IS operator.</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Book Series</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Conference Proceeding</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Trade Publication</t>
+  </si>
+  <si>
+    <t>AGRI</t>
+  </si>
+  <si>
+    <t>Agricultural and Biological Sciences</t>
+  </si>
+  <si>
+    <t>ARTS</t>
+  </si>
+  <si>
+    <t>Arts and Humanities</t>
+  </si>
+  <si>
+    <t>BIOC</t>
+  </si>
+  <si>
+    <t>Biochemistry, Genetics and Molecular Biology</t>
+  </si>
+  <si>
+    <t>BUSI</t>
+  </si>
+  <si>
+    <t>Business, Management and Accounting</t>
+  </si>
+  <si>
+    <t>CENG</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>DECI</t>
+  </si>
+  <si>
+    <t>Decision Sciences</t>
+  </si>
+  <si>
+    <t>DENT</t>
+  </si>
+  <si>
+    <t>Dentistry</t>
+  </si>
+  <si>
+    <t>EART</t>
+  </si>
+  <si>
+    <t>Earth and Planetary Sciences</t>
+  </si>
+  <si>
+    <t>ECON</t>
+  </si>
+  <si>
+    <t>Economics, Econometrics and Finance</t>
+  </si>
+  <si>
+    <t>ENER</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ENGI</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>ENVI</t>
+  </si>
+  <si>
+    <t>Environmental Science</t>
+  </si>
+  <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>Health Professions</t>
+  </si>
+  <si>
+    <t>IMMU</t>
+  </si>
+  <si>
+    <t>Immunology and Microbiology</t>
+  </si>
+  <si>
+    <t>MATE</t>
+  </si>
+  <si>
+    <t>Materials Science</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>MEDI</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>NEUR</t>
+  </si>
+  <si>
+    <t>Neuroscience</t>
+  </si>
+  <si>
+    <t>NURS</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>PHAR</t>
+  </si>
+  <si>
+    <t>Pharmacology, Toxicology and Pharmaceutics</t>
+  </si>
+  <si>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>Physics and Astronomy</t>
+  </si>
+  <si>
+    <t>PSYC</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>SOCI</t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
+  </si>
+  <si>
+    <t>VETE</t>
+  </si>
+  <si>
+    <t>Veterinary</t>
+  </si>
+  <si>
+    <t>MULT</t>
+  </si>
+  <si>
+    <t>Multidisciplinary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on the TITLE-ABS-KEY-AUTH </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in a Document </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>"climate change" OR "climate variability" OR "global warming" OR "greenhouse effect" OR "extreme weather" OR "climate hazard" OR "heat stress" OR "heat wave" OR "precipitation variability" OR "temperature variability" OR drought</t>
+  </si>
+  <si>
+    <t>smallGrains</t>
+  </si>
+  <si>
+    <t>buckwheat* OR fonio* OR millet* OR rye* OR sorghum* OR teff</t>
+  </si>
+  <si>
+    <t>c("cereal*", "rice", "maize", "corn", "wheat", "sorghum", "millet",  "buckwheat*", "fonio*", "rye*", "teff")</t>
+  </si>
+  <si>
+    <t>spices</t>
+  </si>
+  <si>
+    <t>spice* OR nutmeg* OR cardamon* OR cinnamon* OR clove* OR pepper OR  vanilla* OR mustard</t>
+  </si>
+  <si>
+    <t>oilCrop</t>
+  </si>
+  <si>
+    <t>"oil crop*" OR "oil palm*" OR sunflower* OR sesame* OR safflower</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>citrus* OR lemon* OR lime* OR oranges* OR grapefruit</t>
+  </si>
+  <si>
+    <t>tuber* OR root OR carrot* OR cassava OR potato* OR sweet potatoes* OR turnip* OR yam* OR taro* OR cocoyam* OR onion* OR garlic OR ginger OR leek</t>
+  </si>
+  <si>
+    <t>nuts</t>
+  </si>
+  <si>
+    <t>*nut* OR groundnut* OR cashew* OR coconut* OR pistach* OR cashew</t>
+  </si>
+  <si>
+    <t>c("carrot*", "cassava", "potato*", "sweet potat*", "turnip*", "yam*", "taro*", "cocoyam*", "onion*", "garlic", "ginger", "leek")</t>
+  </si>
+  <si>
+    <t>searchStrings.rootsNtubers</t>
+  </si>
+  <si>
+    <t>rootsNtubers</t>
+  </si>
+  <si>
+    <t>agriculture AND (SSP OR "shared socioeconomic profile*" OR RCP OR "representative concentration pathway")</t>
+  </si>
+  <si>
+    <t>"*forestry system*" OR agroforestry OR agriforestry</t>
+  </si>
+  <si>
+    <t>vegetabl* OR broccoli OR cauliflower OR broccoli OR okra OR pumpkin OR chili* OR spinach OR pea OR tomato</t>
+  </si>
+  <si>
+    <t>legume* OR bean* OR pulses OR pea OR lentil OR chickpea OR cowpea OR "pigeon pea" OR "pigeonpea"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1085,6 +5292,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1107,7 +5348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1133,6 +5374,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1448,10 +5696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1464,19 +5712,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1484,652 +5732,802 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>104</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
+        <f t="shared" ref="A4:A54" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>729</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>96</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>105</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>133</v>
+        <v>186</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>135</v>
+        <v>715</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>184</v>
+        <v>718</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>127</v>
+        <v>725</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>141</v>
+        <v>720</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>188</v>
+        <v>722</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>142</v>
+        <v>95</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E38" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="6" t="s">
+    <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="E41" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>144</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{EB323E7F-C5BD-C24A-9909-3B5183F7D633}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E47">
-      <sortCondition ref="B1:B47"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E54">
+      <sortCondition ref="B1:B54"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2141,7 +6539,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2151,130 +6549,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>728</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2283,6 +6681,2816 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5825E51-79F8-3943-A43A-0FB9AED7F8CD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB3225A-4DA2-B449-9413-FA03533C994C}">
+  <dimension ref="A1:C350"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="P95" sqref="P95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="18"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="18"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="17"/>
+      <c r="B53" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="B55" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="17"/>
+      <c r="B56" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="15"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="17"/>
+      <c r="B71" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="17"/>
+      <c r="B72" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="17"/>
+      <c r="B73" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="15"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="15"/>
+    </row>
+    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="17"/>
+      <c r="B99" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="17"/>
+      <c r="B100" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="15"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="15"/>
+    </row>
+    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="15"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="17"/>
+      <c r="B113" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="15"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="17"/>
+      <c r="B116" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="17"/>
+      <c r="B117" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="17"/>
+      <c r="B118" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="15"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="15"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="17"/>
+      <c r="B124" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" s="18"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="17"/>
+      <c r="B126" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" s="18"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="17"/>
+      <c r="B128" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C128" s="18"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="17"/>
+      <c r="B130" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="17"/>
+      <c r="B131" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="17"/>
+      <c r="B132" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="17"/>
+      <c r="B133" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="17"/>
+      <c r="B134" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="17"/>
+      <c r="B135" s="15"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="17"/>
+      <c r="B136" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="17"/>
+      <c r="B138" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="17"/>
+      <c r="B140" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="17"/>
+      <c r="B142" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="17"/>
+      <c r="B144" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="17"/>
+      <c r="C145" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="17"/>
+      <c r="B147" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C147" s="18"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="17"/>
+      <c r="B149" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="17"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="17"/>
+      <c r="B151" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="17"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="17"/>
+      <c r="B153" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="17"/>
+      <c r="B154" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="17"/>
+      <c r="B155" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="17"/>
+      <c r="B156" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="17"/>
+      <c r="B157" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="17"/>
+      <c r="B158" s="15"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="17"/>
+      <c r="B159" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="17"/>
+      <c r="B160" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="17"/>
+      <c r="B162" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="17"/>
+      <c r="B163" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="17"/>
+      <c r="B164" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="17"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="17"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="17"/>
+      <c r="B168" s="18"/>
+      <c r="C168" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="17"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="17"/>
+      <c r="B172" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C172" s="18"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="17"/>
+      <c r="B175" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C175" s="18"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="17"/>
+      <c r="B177" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C177" s="18"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="17"/>
+      <c r="B181" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="17"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="17"/>
+      <c r="B185" s="18"/>
+      <c r="C185" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="17"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="17"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="17"/>
+      <c r="B190" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C190" s="18"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="17"/>
+      <c r="B192" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="C192" s="18"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="17"/>
+      <c r="B195" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C195" s="18"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="17"/>
+      <c r="B198" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C198" s="18"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="17"/>
+      <c r="B200" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="C200" s="18"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="17"/>
+      <c r="B201" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C201" s="18"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C202" s="18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="17"/>
+      <c r="B203" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C203" s="18"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="17"/>
+      <c r="B208" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C208" s="18"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="17"/>
+      <c r="B210" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C210" s="18"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="17"/>
+      <c r="B212" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="17"/>
+      <c r="B214" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C214" s="18"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="17"/>
+      <c r="B216" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C216" s="18"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="17"/>
+      <c r="B218" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C218" s="18"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C219" s="18" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="17"/>
+      <c r="B220" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="C220" s="18"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C222" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="17"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="17"/>
+      <c r="B225" s="18"/>
+      <c r="C225" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="17"/>
+      <c r="B226" s="18"/>
+      <c r="C226" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="17"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="17"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="17"/>
+      <c r="B231" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="17"/>
+      <c r="C232" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="17"/>
+      <c r="C233" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="17"/>
+      <c r="C234" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C235" s="18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="17"/>
+      <c r="B236" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C236" s="18"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C237" s="18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="17"/>
+      <c r="B238" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C238" s="18"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C239" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="17"/>
+      <c r="B240" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C240" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="17"/>
+      <c r="C241" s="15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="B242" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C242" s="15" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="17"/>
+      <c r="B243" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C243" s="15" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="17"/>
+      <c r="B244" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="C244" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="17"/>
+      <c r="B245" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="C245" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="17"/>
+      <c r="B246" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="17"/>
+      <c r="B247" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="17"/>
+      <c r="B248" s="15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="17"/>
+      <c r="B249" s="15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="B250" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="C250" s="18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="17"/>
+      <c r="B251" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C251" s="18"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="17"/>
+      <c r="B252" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C252" s="18"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="17"/>
+      <c r="B253" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="C253" s="18"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="B254" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C254" s="15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="B255" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C255" s="15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B256" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C256" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="17"/>
+      <c r="B257" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C257" s="18"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="17"/>
+      <c r="B259" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="17"/>
+      <c r="C260" s="15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="17"/>
+      <c r="B262" s="18"/>
+      <c r="C262" s="15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="17"/>
+      <c r="B263" s="18"/>
+      <c r="C263" s="15" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B264" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="17"/>
+      <c r="B265" s="18"/>
+      <c r="C265" s="15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="17"/>
+      <c r="B266" s="18"/>
+      <c r="C266" s="15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="B267" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="C267" s="18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="17"/>
+      <c r="B268" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C268" s="18"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="C269" s="18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="17"/>
+      <c r="B270" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C270" s="18"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B271" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="17"/>
+      <c r="B272" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="17"/>
+      <c r="C273" s="15" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="17"/>
+      <c r="C274" s="15" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C275" s="18" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="17"/>
+      <c r="B276" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C276" s="18"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="B277" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C277" s="18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="17"/>
+      <c r="B278" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C278" s="18"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C279" s="18" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="17"/>
+      <c r="B280" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C280" s="18"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C281" s="15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C284" s="18" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="17"/>
+      <c r="B285" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C285" s="18"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="B286" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B287" s="15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="17"/>
+      <c r="B288" s="15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="17"/>
+      <c r="B290" s="15" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B291" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B292" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="B293" s="15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="B294" s="15" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B295" s="15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B296" s="15" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B297" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B298" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="B299" s="15" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="B300" s="15" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="B303" s="15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="B304" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="B305" s="15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="B306" s="15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="17"/>
+      <c r="B309" s="15" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="17"/>
+      <c r="B310" s="15" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="17"/>
+      <c r="B311" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="17"/>
+      <c r="B312" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B313" s="15" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B314" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="B315" s="15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="B316" s="15" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="B318" s="15" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="B319" s="15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="B321" s="15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="B322" s="15" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="B323" s="15" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="B324" s="15" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="B325" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B326" s="15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="B327" s="15" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="B328" s="15" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="B329" s="15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="B330" s="15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="B331" s="15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B332" s="15" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="B333" s="15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="B334" s="15" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="B335" s="15" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="B336" s="15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="B337" s="15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="B338" s="15" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="B339" s="15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="B340" s="15" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="B342" s="15" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="B343" s="15" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="B344" s="15" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="B345" s="15" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="B346" s="15" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="B347" s="15" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B348" s="15" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="15"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="104">
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652E5710-150B-C14C-9032-4451AF876B8C}">
   <dimension ref="A1:A121"/>
   <sheetViews>
@@ -2294,337 +9502,337 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/queries.xlsx
+++ b/data-raw/queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C09534-F426-834A-9678-B4FFABE4AA06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11DC0A1-0BF5-4E45-96EF-A8556CDA3797}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41580" yWindow="680" windowWidth="27640" windowHeight="19500" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="41580" yWindow="680" windowWidth="27640" windowHeight="19500" activeTab="1" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries" sheetId="1" r:id="rId1"/>
@@ -941,9 +941,6 @@
     <t xml:space="preserve">c("profit*", "financ*", "economic*", "price", "price variability") </t>
   </si>
   <si>
-    <t>c("ruminant", " , "cattle", "beef", "goat", "sheep", "pig", "swine",   "pork", "chicken", "poultry")</t>
-  </si>
-  <si>
     <t>searchStringName</t>
   </si>
   <si>
@@ -5222,6 +5219,9 @@
   </si>
   <si>
     <t>legume* OR bean* OR pulses OR pea OR lentil OR chickpea OR cowpea OR "pigeon pea" OR "pigeonpea"</t>
+  </si>
+  <si>
+    <t>c("ruminant",  "cattle", "beef", "goat", "sheep", "pig", "swine",   "pork", "chicken", "poultry")</t>
   </si>
 </sst>
 </file>
@@ -5378,9 +5378,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5698,8 +5698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>131</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5783,7 +5783,7 @@
         <v>132</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5825,10 +5825,10 @@
         <v>110</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5888,7 +5888,7 @@
         <v>86</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5918,7 +5918,7 @@
         <v>89</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5975,10 +5975,10 @@
         <v>110</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -6020,10 +6020,10 @@
         <v>110</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -6035,10 +6035,10 @@
         <v>110</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -6050,10 +6050,10 @@
         <v>110</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>715</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -6065,10 +6065,10 @@
         <v>110</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>718</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -6080,10 +6080,10 @@
         <v>110</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -6095,10 +6095,10 @@
         <v>110</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -6110,10 +6110,10 @@
         <v>110</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>722</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6158,7 +6158,7 @@
         <v>130</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6173,7 +6173,7 @@
         <v>121</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -6203,7 +6203,7 @@
         <v>135</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -6218,7 +6218,7 @@
         <v>88</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -6383,7 +6383,7 @@
         <v>83</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -6413,7 +6413,7 @@
         <v>100</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -6443,7 +6443,7 @@
         <v>127</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -6458,7 +6458,7 @@
         <v>98</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -6470,10 +6470,10 @@
         <v>138</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -6488,7 +6488,7 @@
         <v>99</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
         <v>97</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -6538,8 +6538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B44446-4EFF-1748-B076-59F83F2A5201}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6549,10 +6549,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6592,7 +6592,7 @@
         <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -6600,7 +6600,7 @@
         <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -6616,15 +6616,15 @@
         <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -6695,10 +6695,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6706,7 +6706,7 @@
         <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -6726,12 +6726,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -6739,12 +6739,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -6752,54 +6752,54 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6807,113 +6807,113 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="16" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="15" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="15" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="15" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="15" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>214</v>
+      <c r="A31" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="15" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -6921,32 +6921,32 @@
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -6954,217 +6954,217 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>226</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B43" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="B43" s="19"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B44" s="18"/>
+        <v>229</v>
+      </c>
+      <c r="B44" s="19"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
-        <v>214</v>
+      <c r="A50" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="15" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="15" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="15" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="15" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="15" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="15" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="15" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B59" s="15" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="15" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="15" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>214</v>
+      <c r="A70" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="B70" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="17"/>
-      <c r="B71" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="15" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="15" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="15" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -7172,82 +7172,82 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -7255,20 +7255,20 @@
     </row>
     <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -7276,68 +7276,68 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B96" s="15" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
+      <c r="B97" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B97" s="15" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="18"/>
+      <c r="B98" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="18"/>
+      <c r="B99" s="15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
-      <c r="B98" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="15" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="18"/>
+      <c r="B100" s="15" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="15" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -7345,10 +7345,10 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -7356,7 +7356,7 @@
     </row>
     <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -7364,58 +7364,58 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="19" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="17" t="s">
-        <v>207</v>
+      <c r="A112" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="B112" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="18"/>
+      <c r="B113" s="15" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="15" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="17" t="s">
-        <v>214</v>
+      <c r="A115" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="18"/>
+      <c r="B116" s="15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="17"/>
-      <c r="B116" s="15" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="18"/>
+      <c r="B117" s="15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="17"/>
-      <c r="B117" s="15" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="18"/>
+      <c r="B118" s="15" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="17"/>
-      <c r="B118" s="15" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -7423,7 +7423,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -7431,1946 +7431,1946 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B122" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="C122" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C122" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
+      <c r="B123" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="C123" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="18"/>
+      <c r="B124" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C124" s="19"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="18" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="17"/>
-      <c r="B124" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C124" s="18"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="17" t="s">
+      <c r="B125" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="C125" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="18"/>
+      <c r="B126" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C126" s="19"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="17"/>
-      <c r="B126" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C126" s="18"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="17" t="s">
+      <c r="B127" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="C127" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="18"/>
+      <c r="B128" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C128" s="19"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="18" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="17"/>
-      <c r="B128" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C128" s="18"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="17" t="s">
+      <c r="B129" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="C129" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="18"/>
+      <c r="B130" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C130" s="15" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="17"/>
-      <c r="B130" s="15" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="18"/>
+      <c r="B131" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C131" s="15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="17"/>
-      <c r="B131" s="15" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="18"/>
+      <c r="B132" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C132" s="15" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="17"/>
-      <c r="B132" s="15" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="18"/>
+      <c r="B133" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C133" s="15" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="17"/>
-      <c r="B133" s="15" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="18"/>
+      <c r="B134" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C134" s="15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="17"/>
-      <c r="B134" s="15" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="18"/>
+      <c r="B135" s="15"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="18"/>
+      <c r="B136" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C134" s="15" t="s">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="18" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="17"/>
-      <c r="B135" s="15"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="17"/>
-      <c r="B136" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="17" t="s">
+      <c r="B137" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="C137" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="18"/>
+      <c r="B138" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C138" s="15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="17"/>
-      <c r="B138" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C138" s="15" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="18" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
+      <c r="B139" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="C139" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="18"/>
+      <c r="B140" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C140" s="15" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="17"/>
-      <c r="B140" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C140" s="15" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="18" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="17" t="s">
+      <c r="B141" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="C141" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="18"/>
+      <c r="B142" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C142" s="15" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="17"/>
-      <c r="B142" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="C142" s="15" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="18" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="17" t="s">
+      <c r="B143" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="C143" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="18"/>
+      <c r="B144" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C144" s="15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="17"/>
-      <c r="B144" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C144" s="15" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="18"/>
+      <c r="C145" s="15" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="17"/>
-      <c r="C145" s="15" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="18" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="17" t="s">
+      <c r="B146" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="C146" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="18"/>
+      <c r="B147" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C147" s="19"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="18" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="17"/>
-      <c r="B147" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C147" s="18"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="17" t="s">
+      <c r="B148" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="C148" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="18"/>
+      <c r="B149" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C149" s="15" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="17"/>
-      <c r="B149" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="17"/>
+      <c r="A150" s="18"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="18"/>
+      <c r="B151" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="17"/>
-      <c r="B151" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>362</v>
-      </c>
-    </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="17"/>
+      <c r="A152" s="18"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="18"/>
+      <c r="B153" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C153" s="15" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="17"/>
-      <c r="B153" s="15" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="18"/>
+      <c r="B154" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C154" s="15" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="17"/>
-      <c r="B154" s="15" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="18"/>
+      <c r="B155" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C155" s="15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="17"/>
-      <c r="B155" s="15" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="18"/>
+      <c r="B156" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C156" s="15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="17"/>
-      <c r="B156" s="15" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="18"/>
+      <c r="B157" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C156" s="15" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="18"/>
+      <c r="B158" s="15"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="18"/>
+      <c r="B159" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="18"/>
+      <c r="B160" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="18" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="17"/>
-      <c r="B157" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="17"/>
-      <c r="B158" s="15"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="17"/>
-      <c r="B159" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="17"/>
-      <c r="B160" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="17" t="s">
+      <c r="B161" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="C161" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="18"/>
+      <c r="B162" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C162" s="15" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="17"/>
-      <c r="B162" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C162" s="15" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="18"/>
+      <c r="B163" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="17"/>
-      <c r="B163" s="15" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="18"/>
+      <c r="B164" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C163" s="15" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="18" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="17"/>
-      <c r="B164" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="17" t="s">
+      <c r="B165" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="C165" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="C165" s="15" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="18"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="17"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="15" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="18"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="17"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="15" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="18"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="17"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="15" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="18"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="15" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="17"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="15" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B170" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="C170" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="C170" s="15" t="s">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="18" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="17" t="s">
+      <c r="B171" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="C171" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="18"/>
+      <c r="B172" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="C171" s="18" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="17"/>
-      <c r="B172" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C172" s="18"/>
+      <c r="C172" s="19"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B173" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B173" s="15" t="s">
+      <c r="C173" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="C173" s="15" t="s">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="18" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="17" t="s">
+      <c r="B174" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="C174" s="19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="18"/>
+      <c r="B175" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C175" s="19"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="18" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="17"/>
-      <c r="B175" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C175" s="18"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="17" t="s">
+      <c r="B176" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="C176" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="18"/>
+      <c r="B177" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C176" s="18" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="17"/>
-      <c r="B177" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C177" s="18"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B178" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="C178" s="15" t="s">
         <v>400</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B179" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="C179" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="C179" s="15" t="s">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="18" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="17" t="s">
+      <c r="B180" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="C180" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="18"/>
+      <c r="B181" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C181" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="17"/>
-      <c r="B181" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C181" s="15" t="s">
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" s="18" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="17" t="s">
+      <c r="B182" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B182" s="18" t="s">
+      <c r="C182" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C182" s="14" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="18"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="15" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="17"/>
-      <c r="B183" s="18"/>
-      <c r="C183" s="15" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="18" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="17" t="s">
+      <c r="B184" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="B184" s="18" t="s">
+      <c r="C184" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="C184" s="15" t="s">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="18"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="18" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="17"/>
-      <c r="B185" s="18"/>
-      <c r="C185" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="17" t="s">
+      <c r="B186" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="B186" s="18" t="s">
+      <c r="C186" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="C186" s="15" t="s">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="18"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="17"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="15" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="18"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="17"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="15" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="18" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="17" t="s">
+      <c r="B189" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="C189" s="19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="18"/>
+      <c r="B190" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C190" s="19"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="18" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="17"/>
-      <c r="B190" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C190" s="18"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="17" t="s">
+      <c r="B191" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="B191" s="15" t="s">
+      <c r="C191" s="19" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="18"/>
+      <c r="B192" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="C191" s="18" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="17"/>
-      <c r="B192" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C192" s="18"/>
+      <c r="C192" s="19"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B193" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="B193" s="15" t="s">
+      <c r="C193" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="C193" s="15" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="18" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="17" t="s">
+      <c r="B194" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="B194" s="15" t="s">
+      <c r="C194" s="19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="18"/>
+      <c r="B195" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="C194" s="18" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="17"/>
-      <c r="B195" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C195" s="18"/>
+      <c r="C195" s="19"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B196" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="B196" s="15" t="s">
+      <c r="C196" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="C196" s="15" t="s">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="18" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="17" t="s">
+      <c r="B197" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="C197" s="19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="18"/>
+      <c r="B198" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="C197" s="18" t="s">
+      <c r="C198" s="19"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="18" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="17"/>
-      <c r="B198" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="C198" s="18"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="17" t="s">
+      <c r="B199" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="C199" s="19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="18"/>
+      <c r="B200" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C200" s="19"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="18"/>
+      <c r="B201" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C201" s="19"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="18" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="17"/>
-      <c r="B200" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="C200" s="18"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="17"/>
-      <c r="B201" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="C201" s="18"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="17" t="s">
+      <c r="B202" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="C202" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="18"/>
+      <c r="B203" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="C202" s="18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="17"/>
-      <c r="B203" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="C203" s="18"/>
+      <c r="C203" s="19"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B204" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="C204" s="15" t="s">
         <v>454</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B205" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="C205" s="15" t="s">
         <v>457</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B206" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="C206" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="C206" s="15" t="s">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="18" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="17" t="s">
+      <c r="B207" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="C207" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="18"/>
+      <c r="B208" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="C207" s="18" t="s">
+      <c r="C208" s="19"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="18" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="17"/>
-      <c r="B208" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C208" s="18"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="17" t="s">
+      <c r="B209" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="B209" s="15" t="s">
+      <c r="C209" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="18"/>
+      <c r="B210" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="C209" s="18" t="s">
+      <c r="C210" s="19"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="18" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="17"/>
-      <c r="B210" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="C210" s="18"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="17" t="s">
+      <c r="B211" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="B211" s="15" t="s">
+      <c r="C211" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="18"/>
+      <c r="B212" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="C211" s="15" t="s">
+      <c r="C212" s="17" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="17"/>
-      <c r="B212" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="C212" s="19" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="18" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="17" t="s">
+      <c r="B213" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="B213" s="15" t="s">
+      <c r="C213" s="19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="18"/>
+      <c r="B214" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C214" s="19"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="18" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="17"/>
-      <c r="B214" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="C214" s="18"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="17" t="s">
+      <c r="B215" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="B215" s="15" t="s">
+      <c r="C215" s="19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="18"/>
+      <c r="B216" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C216" s="19"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="18" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="17"/>
-      <c r="B216" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C216" s="18"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="17" t="s">
+      <c r="B217" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="C217" s="19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="18"/>
+      <c r="B218" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="C217" s="18" t="s">
+      <c r="C218" s="19"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="18" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="17"/>
-      <c r="B218" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="C218" s="18"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="17" t="s">
+      <c r="B219" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="B219" s="15" t="s">
+      <c r="C219" s="19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="18"/>
+      <c r="B220" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="C219" s="18" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="17"/>
-      <c r="B220" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="C220" s="18"/>
+      <c r="C220" s="19"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="B221" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="C221" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="C221" s="15" t="s">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="18" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="17" t="s">
+      <c r="B222" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="B222" s="18" t="s">
+      <c r="C222" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="C222" s="15" t="s">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="18"/>
+      <c r="B223" s="19"/>
+      <c r="C223" s="15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="17"/>
-      <c r="B223" s="18"/>
-      <c r="C223" s="15" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="18" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="17" t="s">
+      <c r="B224" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="B224" s="18" t="s">
+      <c r="C224" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C224" s="15" t="s">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="18"/>
+      <c r="B225" s="19"/>
+      <c r="C225" s="15" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="17"/>
-      <c r="B225" s="18"/>
-      <c r="C225" s="15" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="18"/>
+      <c r="B226" s="19"/>
+      <c r="C226" s="15" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="17"/>
-      <c r="B226" s="18"/>
-      <c r="C226" s="15" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="18" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="17" t="s">
+      <c r="B227" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="B227" s="18" t="s">
+      <c r="C227" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="C227" s="15" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="18"/>
+      <c r="B228" s="19"/>
+      <c r="C228" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="18"/>
+      <c r="B229" s="19"/>
+      <c r="C229" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="18" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="17"/>
-      <c r="B228" s="18"/>
-      <c r="C228" s="15" t="s">
+      <c r="B230" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="18"/>
+      <c r="B231" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="18"/>
+      <c r="C232" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="18"/>
+      <c r="C233" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="18"/>
+      <c r="C234" s="15" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="17"/>
-      <c r="B229" s="18"/>
-      <c r="C229" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="C230" s="15" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="17"/>
-      <c r="B231" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="17"/>
-      <c r="C232" s="15" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="18" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="17"/>
-      <c r="C233" s="15" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="17"/>
-      <c r="C234" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="17" t="s">
+      <c r="B235" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="B235" s="15" t="s">
+      <c r="C235" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="18"/>
+      <c r="B236" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="C235" s="18" t="s">
+      <c r="C236" s="19"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="18" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="17"/>
-      <c r="B236" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="C236" s="18"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="17" t="s">
+      <c r="B237" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="B237" s="15" t="s">
+      <c r="C237" s="19" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="18"/>
+      <c r="B238" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="C237" s="18" t="s">
+      <c r="C238" s="19"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="18" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="17"/>
-      <c r="B238" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="C238" s="18"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="17" t="s">
+      <c r="B239" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="B239" s="15" t="s">
+      <c r="C239" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="18"/>
+      <c r="B240" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C239" s="15" t="s">
+      <c r="C240" s="15" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="17"/>
-      <c r="B240" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="C240" s="15" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="18"/>
+      <c r="C241" s="15" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="17"/>
-      <c r="C241" s="15" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="18" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="17" t="s">
+      <c r="B242" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="B242" s="15" t="s">
+      <c r="C242" s="15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="18"/>
+      <c r="B243" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="C242" s="15" t="s">
+      <c r="C243" s="15" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="17"/>
-      <c r="B243" s="15" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="18"/>
+      <c r="B244" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="C243" s="15" t="s">
+      <c r="C244" s="15" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="17"/>
-      <c r="B244" s="15" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="18"/>
+      <c r="B245" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="C244" s="15" t="s">
+      <c r="C245" s="15" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="17"/>
-      <c r="B245" s="15" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="18"/>
+      <c r="B246" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C245" s="15" t="s">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="18"/>
+      <c r="B247" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="18"/>
+      <c r="B248" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="18"/>
+      <c r="B249" s="15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="18" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="17"/>
-      <c r="B246" s="15" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="17"/>
-      <c r="B247" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="17"/>
-      <c r="B248" s="15" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="17"/>
-      <c r="B249" s="15" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="17" t="s">
+      <c r="B250" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="B250" s="15" t="s">
+      <c r="C250" s="19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="18"/>
+      <c r="B251" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="C250" s="18" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="17"/>
-      <c r="B251" s="15" t="s">
+      <c r="C251" s="19"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="18"/>
+      <c r="B252" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="C251" s="18"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="17"/>
-      <c r="B252" s="15" t="s">
+      <c r="C252" s="19"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="18"/>
+      <c r="B253" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="C252" s="18"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="17"/>
-      <c r="B253" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="C253" s="18"/>
+      <c r="C253" s="19"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="B254" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="B254" s="15" t="s">
+      <c r="C254" s="15" t="s">
         <v>546</v>
-      </c>
-      <c r="C254" s="15" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="B255" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="B255" s="15" t="s">
+      <c r="C255" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="C255" s="15" t="s">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="18" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="17" t="s">
+      <c r="B256" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="C256" s="19" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="18"/>
+      <c r="B257" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="C256" s="18" t="s">
+      <c r="C257" s="19"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="18" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="17"/>
-      <c r="B257" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="C257" s="18"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="17" t="s">
+      <c r="B258" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C258" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="B258" s="15" t="s">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="18"/>
+      <c r="B259" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="C259" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="18"/>
+      <c r="C260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="17"/>
-      <c r="B259" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="17"/>
-      <c r="C260" s="15" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="18" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="17" t="s">
+      <c r="B261" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="B261" s="18" t="s">
+      <c r="C261" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="C261" s="15" t="s">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="18"/>
+      <c r="B262" s="19"/>
+      <c r="C262" s="15" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="17"/>
-      <c r="B262" s="18"/>
-      <c r="C262" s="15" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="18"/>
+      <c r="B263" s="19"/>
+      <c r="C263" s="15" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="17"/>
-      <c r="B263" s="18"/>
-      <c r="C263" s="15" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="18" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="17" t="s">
+      <c r="B264" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="B264" s="18" t="s">
+      <c r="C264" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="C264" s="15" t="s">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="18"/>
+      <c r="B265" s="19"/>
+      <c r="C265" s="15" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="17"/>
-      <c r="B265" s="18"/>
-      <c r="C265" s="15" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="18"/>
+      <c r="B266" s="19"/>
+      <c r="C266" s="15" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="17"/>
-      <c r="B266" s="18"/>
-      <c r="C266" s="15" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="18" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="17" t="s">
+      <c r="B267" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="B267" s="15" t="s">
+      <c r="C267" s="19" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="18"/>
+      <c r="B268" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="C267" s="18" t="s">
+      <c r="C268" s="19"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="18" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="17"/>
-      <c r="B268" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="C268" s="18"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="17" t="s">
+      <c r="B269" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="C269" s="19" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="18"/>
+      <c r="B270" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="C269" s="18" t="s">
+      <c r="C270" s="19"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="18" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="17"/>
-      <c r="B270" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="C270" s="18"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="17" t="s">
+      <c r="B271" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="C271" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="18"/>
+      <c r="B272" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="C272" s="15" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="17"/>
-      <c r="B272" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="C272" s="15" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="18"/>
+      <c r="C273" s="15" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="17"/>
-      <c r="C273" s="15" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="18"/>
+      <c r="C274" s="15" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="17"/>
-      <c r="C274" s="15" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="18" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="17" t="s">
+      <c r="B275" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="B275" s="15" t="s">
+      <c r="C275" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="C275" s="18" t="s">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="18"/>
+      <c r="B276" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C276" s="19"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="18" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="17"/>
-      <c r="B276" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C276" s="18"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="17" t="s">
+      <c r="B277" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="C277" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="C277" s="18" t="s">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="18"/>
+      <c r="B278" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C278" s="19"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="18" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="17"/>
-      <c r="B278" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C278" s="18"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="17" t="s">
+      <c r="B279" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="B279" s="15" t="s">
+      <c r="C279" s="19" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="18"/>
+      <c r="B280" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="C279" s="18" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="17"/>
-      <c r="B280" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="C280" s="18"/>
+      <c r="C280" s="19"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="B281" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="B281" s="15" t="s">
+      <c r="C281" s="15" t="s">
         <v>594</v>
-      </c>
-      <c r="C281" s="15" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="B282" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="B282" s="15" t="s">
+      <c r="C282" s="15" t="s">
         <v>597</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="B283" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="C283" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="C283" s="15" t="s">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="18" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="17" t="s">
+      <c r="B284" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="B284" s="15" t="s">
+      <c r="C284" s="19" t="s">
         <v>603</v>
       </c>
-      <c r="C284" s="18" t="s">
-        <v>604</v>
-      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="17"/>
+      <c r="A285" s="18"/>
       <c r="B285" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C285" s="18"/>
+        <v>480</v>
+      </c>
+      <c r="C285" s="19"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="B286" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="C286" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="C286" s="15" t="s">
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B287" s="15" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B287" s="15" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="18"/>
+      <c r="B288" s="15" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="17"/>
-      <c r="B288" s="15" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B289" s="15" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B289" s="15" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="18"/>
+      <c r="B290" s="15" t="s">
         <v>610</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="17"/>
-      <c r="B290" s="15" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="B293" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="B293" s="15" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B294" s="15" t="s">
         <v>615</v>
-      </c>
-      <c r="B294" s="15" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="B295" s="15" t="s">
         <v>617</v>
-      </c>
-      <c r="B295" s="15" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="B296" s="15" t="s">
         <v>619</v>
-      </c>
-      <c r="B296" s="15" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="B297" s="15" t="s">
         <v>621</v>
-      </c>
-      <c r="B297" s="15" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="B298" s="15" t="s">
         <v>623</v>
-      </c>
-      <c r="B298" s="15" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B299" s="15" t="s">
         <v>625</v>
-      </c>
-      <c r="B299" s="15" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="B300" s="15" t="s">
         <v>627</v>
-      </c>
-      <c r="B300" s="15" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="B301" s="15" t="s">
         <v>629</v>
-      </c>
-      <c r="B301" s="15" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="B302" s="15" t="s">
         <v>631</v>
-      </c>
-      <c r="B302" s="15" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="B303" s="15" t="s">
         <v>633</v>
-      </c>
-      <c r="B303" s="15" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="B305" s="15" t="s">
         <v>636</v>
-      </c>
-      <c r="B305" s="15" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="B306" s="15" t="s">
         <v>638</v>
-      </c>
-      <c r="B306" s="15" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="B307" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="B307" s="15" t="s">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B308" s="15" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B308" s="15" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="18"/>
+      <c r="B309" s="15" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="17"/>
-      <c r="B309" s="15" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="18"/>
+      <c r="B310" s="15" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="17"/>
-      <c r="B310" s="15" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="18"/>
+      <c r="B311" s="15" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="17"/>
-      <c r="B311" s="15" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="18"/>
+      <c r="B312" s="15" t="s">
         <v>645</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="17"/>
-      <c r="B312" s="15" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="B315" s="15" t="s">
         <v>649</v>
-      </c>
-      <c r="B315" s="15" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="B317" s="15" t="s">
         <v>652</v>
-      </c>
-      <c r="B317" s="15" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="B318" s="15" t="s">
         <v>654</v>
-      </c>
-      <c r="B318" s="15" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="B319" s="15" t="s">
         <v>656</v>
-      </c>
-      <c r="B319" s="15" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="B320" s="15" t="s">
         <v>658</v>
-      </c>
-      <c r="B320" s="15" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="B321" s="15" t="s">
         <v>660</v>
-      </c>
-      <c r="B321" s="15" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="B322" s="15" t="s">
         <v>662</v>
-      </c>
-      <c r="B322" s="15" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="B323" s="15" t="s">
         <v>664</v>
-      </c>
-      <c r="B323" s="15" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="B324" s="15" t="s">
         <v>666</v>
-      </c>
-      <c r="B324" s="15" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="B325" s="15" t="s">
         <v>668</v>
-      </c>
-      <c r="B325" s="15" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="B327" s="15" t="s">
         <v>671</v>
-      </c>
-      <c r="B327" s="15" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="B328" s="15" t="s">
         <v>673</v>
-      </c>
-      <c r="B328" s="15" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="B329" s="15" t="s">
         <v>675</v>
-      </c>
-      <c r="B329" s="15" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="B330" s="15" t="s">
         <v>677</v>
-      </c>
-      <c r="B330" s="15" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="B331" s="15" t="s">
         <v>679</v>
-      </c>
-      <c r="B331" s="15" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="B332" s="15" t="s">
         <v>681</v>
-      </c>
-      <c r="B332" s="15" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="B333" s="15" t="s">
         <v>683</v>
-      </c>
-      <c r="B333" s="15" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="B334" s="15" t="s">
         <v>685</v>
-      </c>
-      <c r="B334" s="15" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="B335" s="15" t="s">
         <v>687</v>
-      </c>
-      <c r="B335" s="15" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="B336" s="15" t="s">
         <v>689</v>
-      </c>
-      <c r="B336" s="15" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="B337" s="15" t="s">
         <v>691</v>
-      </c>
-      <c r="B337" s="15" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="B338" s="15" t="s">
         <v>693</v>
-      </c>
-      <c r="B338" s="15" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="B339" s="15" t="s">
         <v>695</v>
-      </c>
-      <c r="B339" s="15" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="B340" s="15" t="s">
         <v>697</v>
-      </c>
-      <c r="B340" s="15" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="B341" s="15" t="s">
         <v>699</v>
-      </c>
-      <c r="B341" s="15" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="B342" s="15" t="s">
         <v>701</v>
-      </c>
-      <c r="B342" s="15" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="B343" s="15" t="s">
         <v>703</v>
-      </c>
-      <c r="B343" s="15" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="B344" s="15" t="s">
         <v>705</v>
-      </c>
-      <c r="B344" s="15" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B345" s="15" t="s">
         <v>707</v>
-      </c>
-      <c r="B345" s="15" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="B346" s="15" t="s">
         <v>709</v>
-      </c>
-      <c r="B346" s="15" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="B347" s="15" t="s">
         <v>711</v>
-      </c>
-      <c r="B347" s="15" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -9381,15 +9381,87 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="A269:A270"/>
@@ -9404,87 +9476,15 @@
     <mergeCell ref="B261:B263"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
